--- a/config_11.23/shoping_config_cjj.xlsx
+++ b/config_11.23/shoping_config_cjj.xlsx
@@ -232,7 +232,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6031" uniqueCount="2138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6047" uniqueCount="2145">
   <si>
     <t>line_id|行号</t>
   </si>
@@ -8047,6 +8047,84 @@
     <t>深海沉船V9-V12</t>
   </si>
   <si>
+    <t>{5100000,5400000,100}</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>神秘海域V6-V8</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>"1000-2000万金币",</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>{10200000,10800000,100}</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>"2000-5000万金币",</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>{20400000,21600000,100}</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>"3000-7500万金币",</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>{type="permission_class",class_value = "come_back_value_gift1" }</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>{type="permission_class",class_value = "come_back_value_gift2" }</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>{type="permission_class",class_value = "come_back_value_gift3" }</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>{type="permission_class",class_value = "lucky_grab_bag1" }</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>{type="permission_class",class_value = "lucky_grab_bag2" }</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>{type="permission_class",class_value = "lucky_grab_bag3" }</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>{type="permission_class",class_value = "another_day_gift1" }</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>{type="permission_class",class_value = "another_day_gift2" }</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>{type="permission_class",class_value = "another_day_gift3" }</t>
+  </si>
+  <si>
+    <t>{type="permission_class",class_value = "another_day_gift4" }</t>
+  </si>
+  <si>
+    <t>"60万金币","6万小游戏币",</t>
+  </si>
+  <si>
+    <t>"jing_bi","prop_tiny_game_coin"</t>
+  </si>
+  <si>
+    <t>"100万金币","12万小游戏币",</t>
+  </si>
+  <si>
+    <t>"180万金币","18万小游戏币",</t>
+  </si>
+  <si>
     <t>绝地反击</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
@@ -8059,11 +8137,15 @@
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
-    <t>"jing_bi",</t>
+    <t>gift_bag</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>{1010000,1100000,100}</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>1000000,5000000</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
@@ -8095,11 +8177,103 @@
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
+    <t>5000000,10000000</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>"1000-2000万金币",</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>gift_bag</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>{10200000,10800000,100}</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>10000000,20000000</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>10000000,20000000</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>神秘海域V9-V12</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>20000000,50000000</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>20000000,50000000</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>"500-1000万金币",</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>gift_bag</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi",</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
     <t>{5100000,5400000,100}</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
-    <t>神秘海域V6-V8</t>
+    <t>5000000,10000000</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>绝地反击</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>"2000-5000万金币",</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>{20400000,21600000,100}</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>20000000,50000000</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>绝地反击</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>"3000-7500万金币",</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>gift_bag</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi",</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>{30600000,32400000,100}</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>30000000,75000000</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>30000000,75000000</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
@@ -8107,71 +8281,11 @@
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>5</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>,1,0</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>"jing_bi",</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
     <t>{10200000,10800000,100}</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
-    <t>神秘海域V9-V12</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>"2000-5000万金币",</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>gift_bag</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>{20400000,21600000,100}</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>{5100000,5400000,100}</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>"1000-2000万金币",</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>{10200000,10800000,100}</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>"2000-5000万金币",</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>{20400000,21600000,100}</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>"3000-7500万金币",</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>"jing_bi",</t>
+    <t>10000000,20000000</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
@@ -8179,118 +8293,20 @@
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
-    <t>"1000-2000万金币",</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>{10200000,10800000,100}</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>绝地反击</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>"1000-2000万金币",</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>gift_bag</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>"2000-5000万金币",</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>"3000-7500万金币",</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>{30600000,32400000,100}</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>"2000-5000万金币",</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>gift_bag</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>{20400000,21600000,100}</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
     <t>"5000-12000万金币",</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
-    <t>gift_bag</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
     <t>{51000000,54000000,100}</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
-    <t>"5000-12000万金币",</t>
+    <t>50000000,120000000</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>{51000000,54000000,100}</t>
     <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>{type="permission_class",class_value = "come_back_value_gift1" }</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>{type="permission_class",class_value = "come_back_value_gift2" }</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>{type="permission_class",class_value = "come_back_value_gift3" }</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>{type="permission_class",class_value = "lucky_grab_bag1" }</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>{type="permission_class",class_value = "lucky_grab_bag2" }</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>{type="permission_class",class_value = "lucky_grab_bag3" }</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>{type="permission_class",class_value = "another_day_gift1" }</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>{type="permission_class",class_value = "another_day_gift2" }</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>{type="permission_class",class_value = "another_day_gift3" }</t>
-  </si>
-  <si>
-    <t>{type="permission_class",class_value = "another_day_gift4" }</t>
-  </si>
-  <si>
-    <t>"60万金币","6万小游戏币",</t>
-  </si>
-  <si>
-    <t>"jing_bi","prop_tiny_game_coin"</t>
-  </si>
-  <si>
-    <t>"100万金币","12万小游戏币",</t>
-  </si>
-  <si>
-    <t>"180万金币","18万小游戏币",</t>
   </si>
 </sst>
 </file>
@@ -11273,10 +11289,10 @@
   <dimension ref="A1:AIG773"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="7" ySplit="1" topLeftCell="W667" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="1" topLeftCell="W748" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A671" sqref="A671:XFD682"/>
+      <selection pane="bottomRight" activeCell="A757" sqref="A757:XFD772"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5" x14ac:dyDescent="0.2"/>
@@ -62435,7 +62451,7 @@
         <v>1538</v>
       </c>
       <c r="K671" s="87" t="s">
-        <v>2134</v>
+        <v>2098</v>
       </c>
       <c r="M671" s="87">
         <v>-31</v>
@@ -62453,7 +62469,7 @@
         <v>600</v>
       </c>
       <c r="R671" s="87" t="s">
-        <v>2135</v>
+        <v>2099</v>
       </c>
       <c r="S671" s="75" t="s">
         <v>1560</v>
@@ -62506,7 +62522,7 @@
         <v>1538</v>
       </c>
       <c r="K672" s="87" t="s">
-        <v>2136</v>
+        <v>2100</v>
       </c>
       <c r="M672" s="87">
         <v>-31</v>
@@ -62524,7 +62540,7 @@
         <v>1000</v>
       </c>
       <c r="R672" s="87" t="s">
-        <v>2135</v>
+        <v>2099</v>
       </c>
       <c r="S672" s="75" t="s">
         <v>1562</v>
@@ -62577,7 +62593,7 @@
         <v>1538</v>
       </c>
       <c r="K673" s="87" t="s">
-        <v>2137</v>
+        <v>2101</v>
       </c>
       <c r="M673" s="87">
         <v>-31</v>
@@ -62595,7 +62611,7 @@
         <v>1800</v>
       </c>
       <c r="R673" s="87" t="s">
-        <v>2135</v>
+        <v>2099</v>
       </c>
       <c r="S673" s="75" t="s">
         <v>1564</v>
@@ -62666,7 +62682,7 @@
         <v>1800</v>
       </c>
       <c r="R674" s="87" t="s">
-        <v>2135</v>
+        <v>2099</v>
       </c>
       <c r="S674" s="75" t="s">
         <v>1547</v>
@@ -62737,7 +62753,7 @@
         <v>3000</v>
       </c>
       <c r="R675" s="87" t="s">
-        <v>2135</v>
+        <v>2099</v>
       </c>
       <c r="S675" s="75" t="s">
         <v>1549</v>
@@ -62808,7 +62824,7 @@
         <v>4800</v>
       </c>
       <c r="R676" s="87" t="s">
-        <v>2135</v>
+        <v>2099</v>
       </c>
       <c r="S676" s="75" t="s">
         <v>1551</v>
@@ -62879,7 +62895,7 @@
         <v>4800</v>
       </c>
       <c r="R677" s="87" t="s">
-        <v>2135</v>
+        <v>2099</v>
       </c>
       <c r="S677" s="75" t="s">
         <v>1551</v>
@@ -62950,7 +62966,7 @@
         <v>9800</v>
       </c>
       <c r="R678" s="87" t="s">
-        <v>2135</v>
+        <v>2099</v>
       </c>
       <c r="S678" s="75" t="s">
         <v>1554</v>
@@ -63021,7 +63037,7 @@
         <v>19800</v>
       </c>
       <c r="R679" s="87" t="s">
-        <v>2135</v>
+        <v>2099</v>
       </c>
       <c r="S679" s="75" t="s">
         <v>1556</v>
@@ -63092,7 +63108,7 @@
         <v>9800</v>
       </c>
       <c r="R680" s="87" t="s">
-        <v>2135</v>
+        <v>2099</v>
       </c>
       <c r="S680" s="75" t="s">
         <v>1554</v>
@@ -63163,7 +63179,7 @@
         <v>19800</v>
       </c>
       <c r="R681" s="87" t="s">
-        <v>2135</v>
+        <v>2099</v>
       </c>
       <c r="S681" s="75" t="s">
         <v>1556</v>
@@ -63234,7 +63250,7 @@
         <v>49800</v>
       </c>
       <c r="R682" s="87" t="s">
-        <v>2135</v>
+        <v>2099</v>
       </c>
       <c r="S682" s="75" t="s">
         <v>1558</v>
@@ -68344,13 +68360,13 @@
         <v>1</v>
       </c>
       <c r="G757" s="31" t="s">
-        <v>2081</v>
+        <v>2102</v>
       </c>
       <c r="J757" s="31" t="s">
-        <v>2082</v>
+        <v>2103</v>
       </c>
       <c r="K757" s="31" t="s">
-        <v>2083</v>
+        <v>2104</v>
       </c>
       <c r="M757" s="31">
         <v>-31</v>
@@ -68362,7 +68378,7 @@
         <v>0</v>
       </c>
       <c r="P757" s="31" t="s">
-        <v>1848</v>
+        <v>2105</v>
       </c>
       <c r="Q757" s="31">
         <v>1000</v>
@@ -68384,10 +68400,13 @@
         <v>92</v>
       </c>
       <c r="AC757" s="31" t="s">
-        <v>2084</v>
+        <v>1852</v>
       </c>
       <c r="AD757" s="31" t="s">
-        <v>2085</v>
+        <v>2106</v>
+      </c>
+      <c r="AE757" s="32" t="s">
+        <v>2107</v>
       </c>
       <c r="AI757" s="31">
         <v>1</v>
@@ -68413,13 +68432,13 @@
         <v>1</v>
       </c>
       <c r="G758" s="31" t="s">
-        <v>2086</v>
+        <v>2108</v>
       </c>
       <c r="J758" s="31" t="s">
-        <v>2087</v>
+        <v>2109</v>
       </c>
       <c r="K758" s="31" t="s">
-        <v>2088</v>
+        <v>2110</v>
       </c>
       <c r="M758" s="31">
         <v>-31</v>
@@ -68431,14 +68450,14 @@
         <v>0</v>
       </c>
       <c r="P758" s="31" t="s">
-        <v>1848</v>
+        <v>2105</v>
       </c>
       <c r="Q758" s="31">
         <v>5000</v>
       </c>
       <c r="S758" s="56"/>
       <c r="X758" s="31" t="s">
-        <v>2089</v>
+        <v>2111</v>
       </c>
       <c r="Y758" s="31">
         <v>99999999</v>
@@ -68453,10 +68472,13 @@
         <v>93</v>
       </c>
       <c r="AC758" s="31" t="s">
-        <v>2084</v>
+        <v>1852</v>
       </c>
       <c r="AD758" s="31" t="s">
-        <v>2090</v>
+        <v>2081</v>
+      </c>
+      <c r="AE758" s="32" t="s">
+        <v>2112</v>
       </c>
       <c r="AI758" s="31">
         <v>1</v>
@@ -68482,13 +68504,13 @@
         <v>1</v>
       </c>
       <c r="G759" s="31" t="s">
-        <v>2081</v>
+        <v>1875</v>
       </c>
       <c r="J759" s="31" t="s">
-        <v>2091</v>
+        <v>2082</v>
       </c>
       <c r="K759" s="31" t="s">
-        <v>2092</v>
+        <v>2113</v>
       </c>
       <c r="M759" s="31">
         <v>-31</v>
@@ -68500,14 +68522,14 @@
         <v>0</v>
       </c>
       <c r="P759" s="31" t="s">
-        <v>1848</v>
+        <v>2114</v>
       </c>
       <c r="Q759" s="31">
         <v>9800</v>
       </c>
       <c r="S759" s="56"/>
       <c r="X759" s="31" t="s">
-        <v>2093</v>
+        <v>1880</v>
       </c>
       <c r="Y759" s="31">
         <v>99999999</v>
@@ -68522,10 +68544,13 @@
         <v>94</v>
       </c>
       <c r="AC759" s="31" t="s">
-        <v>2094</v>
+        <v>1852</v>
       </c>
       <c r="AD759" s="31" t="s">
-        <v>2095</v>
+        <v>2115</v>
+      </c>
+      <c r="AE759" s="32" t="s">
+        <v>2117</v>
       </c>
       <c r="AI759" s="31">
         <v>1</v>
@@ -68551,13 +68576,13 @@
         <v>1</v>
       </c>
       <c r="G760" s="31" t="s">
-        <v>2086</v>
+        <v>1875</v>
       </c>
       <c r="J760" s="31" t="s">
-        <v>2096</v>
+        <v>2118</v>
       </c>
       <c r="K760" s="31" t="s">
-        <v>2097</v>
+        <v>2085</v>
       </c>
       <c r="M760" s="31">
         <v>-31</v>
@@ -68569,14 +68594,14 @@
         <v>0</v>
       </c>
       <c r="P760" s="31" t="s">
-        <v>2098</v>
+        <v>1848</v>
       </c>
       <c r="Q760" s="31">
         <v>19800</v>
       </c>
       <c r="S760" s="56"/>
       <c r="X760" s="31" t="s">
-        <v>2093</v>
+        <v>1880</v>
       </c>
       <c r="Y760" s="31">
         <v>99999999</v>
@@ -68591,10 +68616,13 @@
         <v>95</v>
       </c>
       <c r="AC760" s="31" t="s">
-        <v>2084</v>
+        <v>1852</v>
       </c>
       <c r="AD760" s="31" t="s">
-        <v>2099</v>
+        <v>2086</v>
+      </c>
+      <c r="AE760" s="32" t="s">
+        <v>2120</v>
       </c>
       <c r="AI760" s="31">
         <v>1</v>
@@ -68620,13 +68648,13 @@
         <v>1</v>
       </c>
       <c r="G761" s="31" t="s">
-        <v>2081</v>
+        <v>2102</v>
       </c>
       <c r="J761" s="31" t="s">
         <v>2068</v>
       </c>
       <c r="K761" s="31" t="s">
-        <v>2088</v>
+        <v>2121</v>
       </c>
       <c r="M761" s="31">
         <v>-31</v>
@@ -68638,7 +68666,7 @@
         <v>0</v>
       </c>
       <c r="P761" s="31" t="s">
-        <v>2098</v>
+        <v>2122</v>
       </c>
       <c r="Q761" s="31">
         <v>5000</v>
@@ -68660,10 +68688,13 @@
         <v>92</v>
       </c>
       <c r="AC761" s="31" t="s">
-        <v>2084</v>
+        <v>2123</v>
       </c>
       <c r="AD761" s="31" t="s">
-        <v>2100</v>
+        <v>2124</v>
+      </c>
+      <c r="AE761" s="32" t="s">
+        <v>2125</v>
       </c>
       <c r="AI761" s="31">
         <v>1</v>
@@ -68689,13 +68720,13 @@
         <v>1</v>
       </c>
       <c r="G762" s="31" t="s">
-        <v>2086</v>
+        <v>1875</v>
       </c>
       <c r="J762" s="31" t="s">
         <v>2070</v>
       </c>
       <c r="K762" s="31" t="s">
-        <v>2101</v>
+        <v>2083</v>
       </c>
       <c r="M762" s="31">
         <v>-31</v>
@@ -68707,7 +68738,7 @@
         <v>0</v>
       </c>
       <c r="P762" s="31" t="s">
-        <v>2098</v>
+        <v>1848</v>
       </c>
       <c r="Q762" s="31">
         <v>9800</v>
@@ -68729,10 +68760,13 @@
         <v>93</v>
       </c>
       <c r="AC762" s="31" t="s">
+        <v>1852</v>
+      </c>
+      <c r="AD762" s="31" t="s">
         <v>2084</v>
       </c>
-      <c r="AD762" s="31" t="s">
-        <v>2102</v>
+      <c r="AE762" s="32" t="s">
+        <v>2116</v>
       </c>
       <c r="AI762" s="31">
         <v>1</v>
@@ -68758,13 +68792,13 @@
         <v>1</v>
       </c>
       <c r="G763" s="31" t="s">
-        <v>2086</v>
+        <v>2126</v>
       </c>
       <c r="J763" s="31" t="s">
         <v>2071</v>
       </c>
       <c r="K763" s="31" t="s">
-        <v>2103</v>
+        <v>2127</v>
       </c>
       <c r="M763" s="31">
         <v>-31</v>
@@ -68799,10 +68833,13 @@
         <v>94</v>
       </c>
       <c r="AC763" s="31" t="s">
-        <v>2084</v>
+        <v>2123</v>
       </c>
       <c r="AD763" s="31" t="s">
-        <v>2104</v>
+        <v>2128</v>
+      </c>
+      <c r="AE763" s="32" t="s">
+        <v>2129</v>
       </c>
       <c r="AI763" s="31">
         <v>1</v>
@@ -68828,13 +68865,13 @@
         <v>1</v>
       </c>
       <c r="G764" s="31" t="s">
-        <v>2086</v>
+        <v>2130</v>
       </c>
       <c r="J764" s="31" t="s">
         <v>2072</v>
       </c>
       <c r="K764" s="31" t="s">
-        <v>2105</v>
+        <v>2131</v>
       </c>
       <c r="M764" s="31">
         <v>-31</v>
@@ -68846,7 +68883,7 @@
         <v>0</v>
       </c>
       <c r="P764" s="31" t="s">
-        <v>1848</v>
+        <v>2132</v>
       </c>
       <c r="Q764" s="31">
         <v>29800</v>
@@ -68869,10 +68906,13 @@
         <v>95</v>
       </c>
       <c r="AC764" s="31" t="s">
-        <v>2106</v>
+        <v>2133</v>
       </c>
       <c r="AD764" s="31" t="s">
-        <v>2107</v>
+        <v>2134</v>
+      </c>
+      <c r="AE764" s="32" t="s">
+        <v>2136</v>
       </c>
       <c r="AI764" s="31">
         <v>1</v>
@@ -68898,13 +68938,13 @@
         <v>1</v>
       </c>
       <c r="G765" s="31" t="s">
-        <v>2086</v>
+        <v>1875</v>
       </c>
       <c r="J765" s="31" t="s">
         <v>2073</v>
       </c>
       <c r="K765" s="31" t="s">
-        <v>2108</v>
+        <v>2137</v>
       </c>
       <c r="M765" s="31">
         <v>-31</v>
@@ -68916,7 +68956,7 @@
         <v>0</v>
       </c>
       <c r="P765" s="31" t="s">
-        <v>1848</v>
+        <v>2122</v>
       </c>
       <c r="Q765" s="31">
         <v>9800</v>
@@ -68938,10 +68978,13 @@
         <v>92</v>
       </c>
       <c r="AC765" s="31" t="s">
-        <v>2106</v>
+        <v>2133</v>
       </c>
       <c r="AD765" s="31" t="s">
-        <v>2109</v>
+        <v>2138</v>
+      </c>
+      <c r="AE765" s="32" t="s">
+        <v>2116</v>
       </c>
       <c r="AI765" s="31">
         <v>1</v>
@@ -68967,13 +69010,13 @@
         <v>1</v>
       </c>
       <c r="G766" s="31" t="s">
-        <v>2110</v>
+        <v>2130</v>
       </c>
       <c r="J766" s="31" t="s">
         <v>2074</v>
       </c>
       <c r="K766" s="31" t="s">
-        <v>2111</v>
+        <v>2137</v>
       </c>
       <c r="M766" s="31">
         <v>-31</v>
@@ -68985,7 +69028,7 @@
         <v>0</v>
       </c>
       <c r="P766" s="31" t="s">
-        <v>2112</v>
+        <v>2132</v>
       </c>
       <c r="Q766" s="31">
         <v>9800</v>
@@ -69007,10 +69050,13 @@
         <v>93</v>
       </c>
       <c r="AC766" s="31" t="s">
-        <v>2084</v>
+        <v>2133</v>
       </c>
       <c r="AD766" s="31" t="s">
-        <v>2109</v>
+        <v>2138</v>
+      </c>
+      <c r="AE766" s="32" t="s">
+        <v>2139</v>
       </c>
       <c r="AI766" s="31">
         <v>1</v>
@@ -69036,13 +69082,13 @@
         <v>1</v>
       </c>
       <c r="G767" s="31" t="s">
-        <v>2086</v>
+        <v>2130</v>
       </c>
       <c r="J767" s="31" t="s">
         <v>2075</v>
       </c>
       <c r="K767" s="31" t="s">
-        <v>2113</v>
+        <v>2127</v>
       </c>
       <c r="M767" s="31">
         <v>-31</v>
@@ -69054,7 +69100,7 @@
         <v>0</v>
       </c>
       <c r="P767" s="31" t="s">
-        <v>2112</v>
+        <v>1848</v>
       </c>
       <c r="Q767" s="31">
         <v>19800</v>
@@ -69076,10 +69122,13 @@
         <v>94</v>
       </c>
       <c r="AC767" s="31" t="s">
-        <v>2084</v>
+        <v>2123</v>
       </c>
       <c r="AD767" s="31" t="s">
-        <v>2099</v>
+        <v>2128</v>
+      </c>
+      <c r="AE767" s="32" t="s">
+        <v>2129</v>
       </c>
       <c r="AI767" s="31">
         <v>1</v>
@@ -69105,13 +69154,13 @@
         <v>1</v>
       </c>
       <c r="G768" s="31" t="s">
-        <v>2086</v>
+        <v>2130</v>
       </c>
       <c r="J768" s="31" t="s">
         <v>2076</v>
       </c>
       <c r="K768" s="31" t="s">
-        <v>2114</v>
+        <v>2087</v>
       </c>
       <c r="M768" s="31">
         <v>-31</v>
@@ -69123,7 +69172,7 @@
         <v>0</v>
       </c>
       <c r="P768" s="31" t="s">
-        <v>2098</v>
+        <v>1848</v>
       </c>
       <c r="Q768" s="31">
         <v>29800</v>
@@ -69145,10 +69194,13 @@
         <v>95</v>
       </c>
       <c r="AC768" s="31" t="s">
-        <v>2084</v>
+        <v>2133</v>
       </c>
       <c r="AD768" s="31" t="s">
-        <v>2115</v>
+        <v>2140</v>
+      </c>
+      <c r="AE768" s="32" t="s">
+        <v>2135</v>
       </c>
       <c r="AI768" s="31">
         <v>1</v>
@@ -69174,13 +69226,13 @@
         <v>1</v>
       </c>
       <c r="G769" s="31" t="s">
-        <v>2110</v>
+        <v>1875</v>
       </c>
       <c r="J769" s="31" t="s">
         <v>2077</v>
       </c>
       <c r="K769" s="31" t="s">
-        <v>2116</v>
+        <v>2127</v>
       </c>
       <c r="M769" s="31">
         <v>-31</v>
@@ -69192,7 +69244,7 @@
         <v>0</v>
       </c>
       <c r="P769" s="31" t="s">
-        <v>2117</v>
+        <v>2122</v>
       </c>
       <c r="Q769" s="31">
         <v>19800</v>
@@ -69214,10 +69266,13 @@
         <v>92</v>
       </c>
       <c r="AC769" s="31" t="s">
-        <v>2106</v>
+        <v>2133</v>
       </c>
       <c r="AD769" s="31" t="s">
-        <v>2118</v>
+        <v>2128</v>
+      </c>
+      <c r="AE769" s="32" t="s">
+        <v>2129</v>
       </c>
       <c r="AI769" s="31">
         <v>1</v>
@@ -69243,13 +69298,13 @@
         <v>1</v>
       </c>
       <c r="G770" s="31" t="s">
-        <v>2110</v>
+        <v>2126</v>
       </c>
       <c r="J770" s="31" t="s">
         <v>2078</v>
       </c>
       <c r="K770" s="31" t="s">
-        <v>2103</v>
+        <v>2127</v>
       </c>
       <c r="M770" s="31">
         <v>-31</v>
@@ -69261,7 +69316,7 @@
         <v>0</v>
       </c>
       <c r="P770" s="31" t="s">
-        <v>1848</v>
+        <v>2122</v>
       </c>
       <c r="Q770" s="31">
         <v>19800</v>
@@ -69283,10 +69338,13 @@
         <v>93</v>
       </c>
       <c r="AC770" s="31" t="s">
-        <v>2094</v>
+        <v>2123</v>
       </c>
       <c r="AD770" s="31" t="s">
-        <v>2118</v>
+        <v>2128</v>
+      </c>
+      <c r="AE770" s="32" t="s">
+        <v>2119</v>
       </c>
       <c r="AI770" s="31">
         <v>1</v>
@@ -69312,13 +69370,13 @@
         <v>1</v>
       </c>
       <c r="G771" s="31" t="s">
-        <v>2081</v>
+        <v>2130</v>
       </c>
       <c r="J771" s="31" t="s">
         <v>2079</v>
       </c>
       <c r="K771" s="31" t="s">
-        <v>2119</v>
+        <v>2141</v>
       </c>
       <c r="M771" s="31">
         <v>-31</v>
@@ -69330,7 +69388,7 @@
         <v>0</v>
       </c>
       <c r="P771" s="31" t="s">
-        <v>2120</v>
+        <v>2122</v>
       </c>
       <c r="Q771" s="31">
         <v>49800</v>
@@ -69352,10 +69410,13 @@
         <v>94</v>
       </c>
       <c r="AC771" s="31" t="s">
-        <v>2106</v>
+        <v>2133</v>
       </c>
       <c r="AD771" s="31" t="s">
-        <v>2121</v>
+        <v>2142</v>
+      </c>
+      <c r="AE771" s="32" t="s">
+        <v>2143</v>
       </c>
       <c r="AI771" s="31">
         <v>1</v>
@@ -69381,13 +69442,13 @@
         <v>1</v>
       </c>
       <c r="G772" s="31" t="s">
-        <v>2086</v>
+        <v>2130</v>
       </c>
       <c r="J772" s="31" t="s">
         <v>2080</v>
       </c>
       <c r="K772" s="31" t="s">
-        <v>2122</v>
+        <v>2141</v>
       </c>
       <c r="M772" s="31">
         <v>-31</v>
@@ -69399,7 +69460,7 @@
         <v>0</v>
       </c>
       <c r="P772" s="31" t="s">
-        <v>2112</v>
+        <v>2132</v>
       </c>
       <c r="Q772" s="31">
         <v>49800</v>
@@ -69421,10 +69482,13 @@
         <v>95</v>
       </c>
       <c r="AC772" s="31" t="s">
-        <v>2106</v>
+        <v>2123</v>
       </c>
       <c r="AD772" s="31" t="s">
-        <v>2123</v>
+        <v>2144</v>
+      </c>
+      <c r="AE772" s="32" t="s">
+        <v>2143</v>
       </c>
       <c r="AI772" s="31">
         <v>1</v>
@@ -70702,7 +70766,7 @@
         <v>86</v>
       </c>
       <c r="B87" s="74" t="s">
-        <v>2124</v>
+        <v>2088</v>
       </c>
       <c r="C87">
         <v>1</v>
@@ -70716,7 +70780,7 @@
         <v>87</v>
       </c>
       <c r="B88" s="74" t="s">
-        <v>2125</v>
+        <v>2089</v>
       </c>
       <c r="C88">
         <v>1</v>
@@ -70730,7 +70794,7 @@
         <v>88</v>
       </c>
       <c r="B89" s="74" t="s">
-        <v>2126</v>
+        <v>2090</v>
       </c>
       <c r="C89">
         <v>1</v>
@@ -70744,7 +70808,7 @@
         <v>89</v>
       </c>
       <c r="B90" s="74" t="s">
-        <v>2127</v>
+        <v>2091</v>
       </c>
       <c r="C90">
         <v>1</v>
@@ -70758,7 +70822,7 @@
         <v>90</v>
       </c>
       <c r="B91" s="74" t="s">
-        <v>2128</v>
+        <v>2092</v>
       </c>
       <c r="C91">
         <v>1</v>
@@ -70772,7 +70836,7 @@
         <v>91</v>
       </c>
       <c r="B92" s="74" t="s">
-        <v>2129</v>
+        <v>2093</v>
       </c>
       <c r="C92">
         <v>1</v>
@@ -70786,7 +70850,7 @@
         <v>92</v>
       </c>
       <c r="B93" s="74" t="s">
-        <v>2130</v>
+        <v>2094</v>
       </c>
       <c r="C93">
         <v>1</v>
@@ -70800,7 +70864,7 @@
         <v>93</v>
       </c>
       <c r="B94" s="74" t="s">
-        <v>2131</v>
+        <v>2095</v>
       </c>
       <c r="C94">
         <v>1</v>
@@ -70814,7 +70878,7 @@
         <v>94</v>
       </c>
       <c r="B95" s="74" t="s">
-        <v>2132</v>
+        <v>2096</v>
       </c>
       <c r="C95">
         <v>1</v>
@@ -70828,7 +70892,7 @@
         <v>95</v>
       </c>
       <c r="B96" s="74" t="s">
-        <v>2133</v>
+        <v>2097</v>
       </c>
       <c r="C96">
         <v>1</v>
